--- a/BackTest/2020-01-15 BackTest BCH.xlsx
+++ b/BackTest/2020-01-15 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1136,11 +1136,9 @@
         <v>-423.77442685</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>301500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>298000</v>
       </c>
@@ -1177,11 +1175,9 @@
         <v>-423.77442685</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>301700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>298000</v>
       </c>
@@ -1218,11 +1214,9 @@
         <v>-407.14002685</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>301700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>298000</v>
       </c>
@@ -1259,11 +1253,9 @@
         <v>-408.14002685</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>301800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>298000</v>
       </c>
@@ -1300,11 +1292,9 @@
         <v>-375.01987848</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>301400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>298000</v>
       </c>
@@ -1341,11 +1331,9 @@
         <v>-378.0195784800001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>298000</v>
       </c>
@@ -1382,11 +1370,9 @@
         <v>-381.5195784800001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>301300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>298000</v>
       </c>
@@ -6384,11 +6370,9 @@
         <v>-440.8461120000001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>302600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>298000</v>
       </c>
@@ -6507,11 +6491,9 @@
         <v>-470.7643120000001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>298000</v>
       </c>
@@ -6548,11 +6530,9 @@
         <v>-471.2643120000001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>302300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>298000</v>
       </c>
@@ -6671,11 +6651,9 @@
         <v>-649.368012</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>301400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>298000</v>
       </c>
@@ -6794,11 +6772,9 @@
         <v>-555.987212</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>301800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>298000</v>
       </c>
@@ -6835,11 +6811,9 @@
         <v>-555.987212</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>298000</v>
       </c>
@@ -6876,11 +6850,9 @@
         <v>-550.969012</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>298000</v>
       </c>
@@ -6917,11 +6889,9 @@
         <v>-553.749012</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>302200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>298000</v>
       </c>
@@ -6958,11 +6928,9 @@
         <v>-553.749012</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>298000</v>
       </c>
@@ -6999,11 +6967,9 @@
         <v>-553.749012</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>298000</v>
       </c>
@@ -7040,11 +7006,9 @@
         <v>-553.749012</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>298000</v>
       </c>
@@ -7081,11 +7045,9 @@
         <v>-542.7057119999999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>298000</v>
       </c>
@@ -7204,11 +7166,9 @@
         <v>-508.029812</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>302300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>298000</v>
       </c>
@@ -7245,11 +7205,9 @@
         <v>-449.268812</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>302900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>298000</v>
       </c>
@@ -7286,11 +7244,9 @@
         <v>-381.5572119999999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>303000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>298000</v>
       </c>
@@ -7327,11 +7283,9 @@
         <v>-381.0242119999999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>303300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>298000</v>
       </c>
@@ -7368,11 +7322,9 @@
         <v>-391.0242119999999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>303500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>298000</v>
       </c>
@@ -7409,11 +7361,9 @@
         <v>-385.3542119999999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>302700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>298000</v>
       </c>
@@ -7450,11 +7400,9 @@
         <v>-385.3542119999999</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>303500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>298000</v>
       </c>
@@ -7491,11 +7439,9 @@
         <v>-386.3031119999999</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>303500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>298000</v>
       </c>
@@ -7532,11 +7478,9 @@
         <v>-386.3031119999999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>303200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>298000</v>
       </c>
@@ -7573,11 +7517,9 @@
         <v>-386.9574119999999</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>303200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>298000</v>
       </c>
@@ -7614,11 +7556,9 @@
         <v>-406.8466119999999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>302800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>298000</v>
       </c>
@@ -7655,11 +7595,9 @@
         <v>-407.1466119999999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>302700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>298000</v>
       </c>
@@ -7696,11 +7634,9 @@
         <v>-407.0222119999999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>302300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>298000</v>
       </c>
@@ -7737,11 +7673,9 @@
         <v>-405.3578786699999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>302400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>298000</v>
       </c>
@@ -7778,11 +7712,9 @@
         <v>-405.3578786699999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>303000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>298000</v>
       </c>
@@ -7819,11 +7751,9 @@
         <v>-406.01267867</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>303000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>298000</v>
       </c>
@@ -7860,11 +7790,9 @@
         <v>-406.01267867</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>302500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>298000</v>
       </c>
@@ -7901,11 +7829,9 @@
         <v>-406.01267867</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>302500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>298000</v>
       </c>
@@ -7942,11 +7868,9 @@
         <v>-471.04998256</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>302500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>298000</v>
       </c>
@@ -7983,11 +7907,9 @@
         <v>-471.04998256</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>302300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>298000</v>
       </c>
@@ -8721,11 +8643,9 @@
         <v>-474.3824158900001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>303300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>298000</v>
       </c>
@@ -8762,11 +8682,9 @@
         <v>-477.4404158900001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>303400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>298000</v>
       </c>
@@ -8803,11 +8721,9 @@
         <v>-479.1827158900001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>302900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>298000</v>
       </c>
@@ -11263,11 +11179,9 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>303400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>298000</v>
       </c>
@@ -11304,11 +11218,9 @@
         <v>-628.9997975800002</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>303400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>298000</v>
       </c>
@@ -11345,11 +11257,9 @@
         <v>-630.8469975800002</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>303300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>298000</v>
       </c>
@@ -11386,11 +11296,9 @@
         <v>-604.3421975800002</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>302800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>298000</v>
       </c>
@@ -11427,11 +11335,9 @@
         <v>-681.3140975800002</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>302900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>298000</v>
       </c>
@@ -11591,11 +11497,9 @@
         <v>-258.0652209700001</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>304000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>298000</v>
       </c>
@@ -38971,7 +38875,7 @@
         <v>5579.766423480008</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
@@ -38979,13 +38883,15 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L976" t="n">
-        <v>1</v>
-      </c>
-      <c r="M976" t="inlineStr"/>
+        <v>1.107751677852349</v>
+      </c>
+      <c r="M976" t="n">
+        <v>1.005704697986577</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="1" t="n">
@@ -39010,17 +38916,11 @@
         <v>6068.664146020008</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -39049,17 +38949,11 @@
         <v>6599.293886940008</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -39088,17 +38982,11 @@
         <v>6882.997095810008</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -39127,17 +39015,11 @@
         <v>6672.245670450007</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -39166,17 +39048,11 @@
         <v>6360.827074390008</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -39205,17 +39081,11 @@
         <v>6557.119389510008</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -39244,17 +39114,11 @@
         <v>6676.744689510007</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -39283,17 +39147,11 @@
         <v>6768.665489510007</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -39322,17 +39180,11 @@
         <v>6903.487310360008</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -39361,17 +39213,11 @@
         <v>7057.991510360008</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -39400,17 +39246,11 @@
         <v>7455.207206880008</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -39439,17 +39279,11 @@
         <v>7675.511221950008</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -39478,17 +39312,11 @@
         <v>8140.841583510008</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -39517,17 +39345,11 @@
         <v>7984.253171570008</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -39556,17 +39378,11 @@
         <v>8205.374371570007</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -39595,17 +39411,11 @@
         <v>8077.353754180008</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -39634,17 +39444,11 @@
         <v>8240.197354180007</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -39673,17 +39477,11 @@
         <v>8514.335555250007</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -39712,17 +39510,11 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -39751,17 +39543,11 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -39790,17 +39576,11 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -39829,17 +39609,11 @@
         <v>8275.673967920007</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -39868,17 +39642,11 @@
         <v>8110.301224750007</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -39907,17 +39675,11 @@
         <v>7996.772524750008</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -39946,17 +39708,11 @@
         <v>7583.423424750007</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -39985,17 +39741,11 @@
         <v>7488.340265370007</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -40024,17 +39774,11 @@
         <v>7457.067765370007</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -40063,17 +39807,11 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -40102,17 +39840,11 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -40141,17 +39873,11 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -40180,17 +39906,11 @@
         <v>7038.670965370006</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -40219,17 +39939,11 @@
         <v>7093.769565370007</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -40258,17 +39972,11 @@
         <v>7058.142076960006</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -40297,17 +40005,11 @@
         <v>7208.022159960006</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -40336,17 +40038,11 @@
         <v>7347.395359960006</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -40375,17 +40071,11 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -40414,17 +40104,11 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -40453,17 +40137,11 @@
         <v>7208.378159960006</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -40492,17 +40170,11 @@
         <v>7263.403260440006</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -40534,14 +40206,8 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -40570,17 +40236,11 @@
         <v>7330.632368600007</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -40609,17 +40269,11 @@
         <v>7317.921811280007</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -40648,17 +40302,11 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -40690,20 +40338,12 @@
         <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>298000</v>
-      </c>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
-        <v>1.113456375838926</v>
-      </c>
-      <c r="M1020" t="n">
-        <v>1.005704697986577</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
     </row>
     <row r="1021">
       <c r="A1021" s="1" t="n">
@@ -40827,7 +40467,7 @@
         <v>6999.460161570008</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -40860,7 +40500,7 @@
         <v>7054.232161570008</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -40893,7 +40533,7 @@
         <v>7034.804733470008</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -40926,7 +40566,7 @@
         <v>6906.893133470007</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -40959,7 +40599,7 @@
         <v>6782.215873420007</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -40992,7 +40632,7 @@
         <v>6782.215873420007</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -41025,7 +40665,7 @@
         <v>6769.352973420007</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -41058,7 +40698,7 @@
         <v>6839.844573420008</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -41091,7 +40731,7 @@
         <v>6845.008873420008</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -41124,7 +40764,7 @@
         <v>6792.284336820008</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -41157,7 +40797,7 @@
         <v>6773.020753850008</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -41190,7 +40830,7 @@
         <v>6776.696253850008</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -41223,7 +40863,7 @@
         <v>6905.303653850008</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -41256,7 +40896,7 @@
         <v>6941.150452650008</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -41289,7 +40929,7 @@
         <v>6976.300452650008</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -41322,7 +40962,7 @@
         <v>7005.742674020008</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -41355,7 +40995,7 @@
         <v>7317.819899470008</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -41388,7 +41028,7 @@
         <v>7091.454365720007</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -41421,7 +41061,7 @@
         <v>7132.713065060007</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -41454,7 +41094,7 @@
         <v>7286.445610690007</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -41487,7 +41127,7 @@
         <v>7354.486010690007</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -41520,7 +41160,7 @@
         <v>7405.207541750007</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -41553,7 +41193,7 @@
         <v>7525.766906890008</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -41586,7 +41226,7 @@
         <v>7725.929338640008</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -41619,7 +41259,7 @@
         <v>7947.690794770007</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -41652,7 +41292,7 @@
         <v>8588.508613220007</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -41685,7 +41325,7 @@
         <v>9601.643929490006</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -41718,7 +41358,7 @@
         <v>11393.24501211001</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -41751,7 +41391,7 @@
         <v>10750.55168529001</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -41784,7 +41424,7 @@
         <v>11054.76200314001</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -41795,6 +41435,6 @@
       <c r="M1053" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BCH.xlsx
+++ b/BackTest/2020-01-15 BackTest BCH.xlsx
@@ -972,11 +972,9 @@
         <v>-368.13062685</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>301000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>298000</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>-419.46582685</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>301900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>298000</v>
       </c>
@@ -1054,11 +1050,9 @@
         <v>-441.15732685</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>301400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>298000</v>
       </c>
@@ -1095,11 +1089,9 @@
         <v>-439.14202685</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>301000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>298000</v>
       </c>
@@ -1409,11 +1401,9 @@
         <v>-314.68517848</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>299700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>298000</v>
       </c>
@@ -1450,11 +1440,9 @@
         <v>-328.3537784800001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>299800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>298000</v>
       </c>
@@ -1491,11 +1479,9 @@
         <v>-327.3537784800001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>299400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>298000</v>
       </c>
@@ -1532,11 +1518,9 @@
         <v>-327.3359784800001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>299500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>298000</v>
       </c>
@@ -1573,11 +1557,9 @@
         <v>-326.9511784800001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>299900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>298000</v>
       </c>
@@ -1614,11 +1596,9 @@
         <v>-336.4621784800001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>300000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>298000</v>
       </c>
@@ -6124,11 +6104,9 @@
         <v>-393.9702120000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>298000</v>
       </c>
@@ -6165,11 +6143,9 @@
         <v>-339.6141120000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>298000</v>
       </c>
@@ -6206,11 +6182,9 @@
         <v>-346.5194120000001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>302300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>298000</v>
       </c>
@@ -6247,11 +6221,9 @@
         <v>-342.5758120000001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>298000</v>
       </c>
@@ -6288,11 +6260,9 @@
         <v>-340.4988120000001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>298000</v>
       </c>
@@ -6329,11 +6299,9 @@
         <v>-439.4936120000001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>302700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>298000</v>
       </c>
@@ -6409,11 +6377,9 @@
         <v>-472.8964120000001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>298000</v>
       </c>
@@ -6450,11 +6416,9 @@
         <v>-471.2643120000001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>298000</v>
       </c>
@@ -6569,11 +6533,9 @@
         <v>-493.1643120000001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>302100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>298000</v>
       </c>
@@ -6610,11 +6572,9 @@
         <v>-649.3330120000001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>302000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>298000</v>
       </c>
@@ -6690,11 +6650,9 @@
         <v>-648.872012</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>301200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>298000</v>
       </c>
@@ -6731,11 +6689,9 @@
         <v>-573.0282120000001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>301700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>298000</v>
       </c>
@@ -7084,11 +7040,9 @@
         <v>-542.380412</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>302200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>298000</v>
       </c>
@@ -7166,9 +7120,11 @@
         <v>-508.029812</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>302300</v>
+      </c>
       <c r="J167" t="n">
         <v>298000</v>
       </c>
@@ -7790,9 +7746,11 @@
         <v>-406.01267867</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>302500</v>
+      </c>
       <c r="J183" t="n">
         <v>298000</v>
       </c>
@@ -7829,9 +7787,11 @@
         <v>-406.01267867</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>302500</v>
+      </c>
       <c r="J184" t="n">
         <v>298000</v>
       </c>
@@ -7946,11 +7906,9 @@
         <v>-475.63928256</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>302300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>298000</v>
       </c>
@@ -7987,11 +7945,9 @@
         <v>-492.44198256</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>302200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>298000</v>
       </c>
@@ -8643,9 +8599,11 @@
         <v>-474.3824158900001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>303300</v>
+      </c>
       <c r="J204" t="n">
         <v>298000</v>
       </c>
@@ -8682,9 +8640,11 @@
         <v>-477.4404158900001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>303400</v>
+      </c>
       <c r="J205" t="n">
         <v>298000</v>
       </c>
@@ -8721,9 +8681,11 @@
         <v>-479.1827158900001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>302900</v>
+      </c>
       <c r="J206" t="n">
         <v>298000</v>
       </c>
@@ -9088,11 +9050,9 @@
         <v>-447.1464158899999</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>302600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>298000</v>
       </c>
@@ -9129,11 +9089,9 @@
         <v>-536.6535158899999</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>302500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>298000</v>
       </c>
@@ -9170,11 +9128,9 @@
         <v>-495.2486158899999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>302200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>298000</v>
       </c>
@@ -9211,11 +9167,9 @@
         <v>-510.9716158899999</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>302700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>298000</v>
       </c>
@@ -9293,11 +9247,9 @@
         <v>-510.8035158899999</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>302400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>298000</v>
       </c>
@@ -9416,11 +9368,9 @@
         <v>-525.6683158899999</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>302600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>298000</v>
       </c>
@@ -11056,11 +11006,9 @@
         <v>-579.6262975800001</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>302800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
         <v>298000</v>
       </c>
@@ -11097,11 +11045,9 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>302800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>298000</v>
       </c>
@@ -11138,11 +11084,9 @@
         <v>-547.6162975800002</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>303400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>298000</v>
       </c>
@@ -11374,11 +11318,9 @@
         <v>-673.1548975800001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>302700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>298000</v>
       </c>
@@ -11415,11 +11357,9 @@
         <v>-610.1831975800001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>302900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>298000</v>
       </c>
@@ -11456,11 +11396,9 @@
         <v>-343.7111975800001</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>303100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>298000</v>
       </c>
@@ -38875,7 +38813,7 @@
         <v>5579.766423480008</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
@@ -38883,15 +38821,13 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L976" t="n">
-        <v>1.107751677852349</v>
-      </c>
-      <c r="M976" t="n">
-        <v>1.005704697986577</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" s="1" t="n">
@@ -38916,11 +38852,17 @@
         <v>6068.664146020008</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -38949,11 +38891,17 @@
         <v>6599.293886940008</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -38982,11 +38930,17 @@
         <v>6882.997095810008</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -39015,11 +38969,17 @@
         <v>6672.245670450007</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -39048,11 +39008,17 @@
         <v>6360.827074390008</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -39081,11 +39047,17 @@
         <v>6557.119389510008</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -39114,11 +39086,17 @@
         <v>6676.744689510007</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -39147,11 +39125,17 @@
         <v>6768.665489510007</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -39180,11 +39164,17 @@
         <v>6903.487310360008</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -39213,11 +39203,17 @@
         <v>7057.991510360008</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -39246,11 +39242,17 @@
         <v>7455.207206880008</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -39279,11 +39281,17 @@
         <v>7675.511221950008</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -39312,11 +39320,17 @@
         <v>8140.841583510008</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -39345,11 +39359,17 @@
         <v>7984.253171570008</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -39378,11 +39398,17 @@
         <v>8205.374371570007</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -39411,11 +39437,17 @@
         <v>8077.353754180008</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -39444,11 +39476,17 @@
         <v>8240.197354180007</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -39477,11 +39515,17 @@
         <v>8514.335555250007</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -39510,11 +39554,17 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -39543,11 +39593,17 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -39576,11 +39632,17 @@
         <v>8414.381267920007</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -39609,11 +39671,17 @@
         <v>8275.673967920007</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -39642,11 +39710,17 @@
         <v>8110.301224750007</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -39675,11 +39749,17 @@
         <v>7996.772524750008</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -39708,11 +39788,17 @@
         <v>7583.423424750007</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -39741,11 +39827,17 @@
         <v>7488.340265370007</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -39774,11 +39866,17 @@
         <v>7457.067765370007</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -39807,11 +39905,17 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -39840,11 +39944,17 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -39873,11 +39983,17 @@
         <v>7476.688165370007</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -39906,11 +40022,17 @@
         <v>7038.670965370006</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -39939,11 +40061,17 @@
         <v>7093.769565370007</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -39972,11 +40100,17 @@
         <v>7058.142076960006</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -40005,11 +40139,17 @@
         <v>7208.022159960006</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -40038,11 +40178,17 @@
         <v>7347.395359960006</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -40071,11 +40217,17 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -40104,11 +40256,17 @@
         <v>7374.255059960006</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -40137,11 +40295,17 @@
         <v>7208.378159960006</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -40170,11 +40334,17 @@
         <v>7263.403260440006</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -40206,8 +40376,14 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -40236,11 +40412,17 @@
         <v>7330.632368600007</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -40269,11 +40451,17 @@
         <v>7317.921811280007</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -40302,11 +40490,17 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -40335,11 +40529,17 @@
         <v>7343.578282180008</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -40368,11 +40568,17 @@
         <v>7362.841082180008</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -40401,11 +40607,17 @@
         <v>7362.841082180008</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -40434,11 +40646,17 @@
         <v>7505.693882180008</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -40470,8 +40688,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -40503,8 +40727,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -40536,8 +40766,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -40569,8 +40805,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -40602,8 +40844,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -40635,8 +40883,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -40668,8 +40922,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -40701,8 +40961,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -40734,8 +41000,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -40767,8 +41039,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -40800,8 +41078,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -40833,8 +41117,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -40866,8 +41156,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -40899,8 +41195,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -40932,8 +41234,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -40965,8 +41273,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -40998,8 +41312,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -41031,8 +41351,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -41064,8 +41390,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -41097,8 +41429,14 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -41130,8 +41468,14 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -41163,8 +41507,14 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -41196,8 +41546,14 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -41229,8 +41585,14 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -41262,8 +41624,14 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -41295,8 +41663,14 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -41328,8 +41702,14 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -41358,15 +41738,23 @@
         <v>11393.24501211001</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>298000</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1051" t="inlineStr"/>
+        <v>1.201375838926175</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>1.005704697986577</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="1" t="n">
@@ -41391,7 +41779,7 @@
         <v>10750.55168529001</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -41424,7 +41812,7 @@
         <v>11054.76200314001</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
